--- a/Results/cnn_validation_CM_PCC.xlsx
+++ b/Results/cnn_validation_CM_PCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\fc_channelselection\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE31842D-47BF-4EDA-8D82-A4A4890144EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E399A5-48D6-4B0B-9330-C78BF861A6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Identifier</t>
   </si>
@@ -64,6 +64,123 @@
   </si>
   <si>
     <t>sub2ex3</t>
+  </si>
+  <si>
+    <t>sub3ex1</t>
+  </si>
+  <si>
+    <t>sub3ex2</t>
+  </si>
+  <si>
+    <t>sub3ex3</t>
+  </si>
+  <si>
+    <t>sub4ex1</t>
+  </si>
+  <si>
+    <t>sub4ex2</t>
+  </si>
+  <si>
+    <t>sub4ex3</t>
+  </si>
+  <si>
+    <t>sub5ex1</t>
+  </si>
+  <si>
+    <t>sub5ex2</t>
+  </si>
+  <si>
+    <t>sub5ex3</t>
+  </si>
+  <si>
+    <t>sub6ex1</t>
+  </si>
+  <si>
+    <t>sub6ex2</t>
+  </si>
+  <si>
+    <t>sub6ex3</t>
+  </si>
+  <si>
+    <t>sub7ex1</t>
+  </si>
+  <si>
+    <t>sub7ex2</t>
+  </si>
+  <si>
+    <t>sub7ex3</t>
+  </si>
+  <si>
+    <t>sub8ex1</t>
+  </si>
+  <si>
+    <t>sub8ex2</t>
+  </si>
+  <si>
+    <t>sub8ex3</t>
+  </si>
+  <si>
+    <t>sub9ex1</t>
+  </si>
+  <si>
+    <t>sub9ex2</t>
+  </si>
+  <si>
+    <t>sub9ex3</t>
+  </si>
+  <si>
+    <t>sub10ex1</t>
+  </si>
+  <si>
+    <t>sub10ex2</t>
+  </si>
+  <si>
+    <t>sub10ex3</t>
+  </si>
+  <si>
+    <t>sub11ex1</t>
+  </si>
+  <si>
+    <t>sub11ex2</t>
+  </si>
+  <si>
+    <t>sub11ex3</t>
+  </si>
+  <si>
+    <t>sub12ex1</t>
+  </si>
+  <si>
+    <t>sub12ex2</t>
+  </si>
+  <si>
+    <t>sub12ex3</t>
+  </si>
+  <si>
+    <t>sub13ex1</t>
+  </si>
+  <si>
+    <t>sub13ex2</t>
+  </si>
+  <si>
+    <t>sub13ex3</t>
+  </si>
+  <si>
+    <t>sub14ex1</t>
+  </si>
+  <si>
+    <t>sub14ex2</t>
+  </si>
+  <si>
+    <t>sub14ex3</t>
+  </si>
+  <si>
+    <t>sub15ex1</t>
+  </si>
+  <si>
+    <t>sub15ex2</t>
+  </si>
+  <si>
+    <t>sub15ex3</t>
   </si>
 </sst>
 </file>
@@ -82,6 +199,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -434,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,6 +677,726 @@
         <v>0.8755088976170915</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>88.96876270555974</v>
+      </c>
+      <c r="C8">
+        <v>0.27392810514550853</v>
+      </c>
+      <c r="D8">
+        <v>0.88968762705559734</v>
+      </c>
+      <c r="E8">
+        <v>0.88675965457758854</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>84.253843026323764</v>
+      </c>
+      <c r="C9">
+        <v>0.47509950404831519</v>
+      </c>
+      <c r="D9">
+        <v>0.84253843026323749</v>
+      </c>
+      <c r="E9">
+        <v>0.84057539477027332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>88.200589970501468</v>
+      </c>
+      <c r="C10">
+        <v>0.38672291543140702</v>
+      </c>
+      <c r="D10">
+        <v>0.88200589970501464</v>
+      </c>
+      <c r="E10">
+        <v>0.8803352650943449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>81.179941002949846</v>
+      </c>
+      <c r="C11">
+        <v>0.79321471931956089</v>
+      </c>
+      <c r="D11">
+        <v>0.81179941002949862</v>
+      </c>
+      <c r="E11">
+        <v>0.80897284358166155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>88.880267130338495</v>
+      </c>
+      <c r="C12">
+        <v>0.646485938612265</v>
+      </c>
+      <c r="D12">
+        <v>0.88880267130338486</v>
+      </c>
+      <c r="E12">
+        <v>0.88206174961214434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>90.826131713942161</v>
+      </c>
+      <c r="C13">
+        <v>0.53879708808575144</v>
+      </c>
+      <c r="D13">
+        <v>0.9082613171394216</v>
+      </c>
+      <c r="E13">
+        <v>0.89737805151955885</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>90.118167112172245</v>
+      </c>
+      <c r="C14">
+        <v>0.41058957955974618</v>
+      </c>
+      <c r="D14">
+        <v>0.90118167112172254</v>
+      </c>
+      <c r="E14">
+        <v>0.90080184155857024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>84.306784660766965</v>
+      </c>
+      <c r="C15">
+        <v>0.79844387039508247</v>
+      </c>
+      <c r="D15">
+        <v>0.84306784660766954</v>
+      </c>
+      <c r="E15">
+        <v>0.83894058773135904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>87.522123893805315</v>
+      </c>
+      <c r="C16">
+        <v>0.58841768632798142</v>
+      </c>
+      <c r="D16">
+        <v>0.87522123893805315</v>
+      </c>
+      <c r="E16">
+        <v>0.87194053284298667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>86.725663716814154</v>
+      </c>
+      <c r="C17">
+        <v>0.5638346450733176</v>
+      </c>
+      <c r="D17">
+        <v>0.86725663716814161</v>
+      </c>
+      <c r="E17">
+        <v>0.86831080806708272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>89.292727445739146</v>
+      </c>
+      <c r="C18">
+        <v>0.40897493571780308</v>
+      </c>
+      <c r="D18">
+        <v>0.89292727445739151</v>
+      </c>
+      <c r="E18">
+        <v>0.89591477815239917</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>76.755162241887916</v>
+      </c>
+      <c r="C19">
+        <v>1.897847053723402</v>
+      </c>
+      <c r="D19">
+        <v>0.76755162241887898</v>
+      </c>
+      <c r="E19">
+        <v>0.76586289126529139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>83.48082595870207</v>
+      </c>
+      <c r="C20">
+        <v>0.98348698911274079</v>
+      </c>
+      <c r="D20">
+        <v>0.83480825958702065</v>
+      </c>
+      <c r="E20">
+        <v>0.82237418297865439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>91.533923303834811</v>
+      </c>
+      <c r="C21">
+        <v>0.41374645191608961</v>
+      </c>
+      <c r="D21">
+        <v>0.91533923303834808</v>
+      </c>
+      <c r="E21">
+        <v>0.91443352287457125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>87.345132743362825</v>
+      </c>
+      <c r="C22">
+        <v>0.81385248192224624</v>
+      </c>
+      <c r="D22">
+        <v>0.8734513274336283</v>
+      </c>
+      <c r="E22">
+        <v>0.86431302073087934</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>89.026894696320909</v>
+      </c>
+      <c r="C23">
+        <v>0.46273765448083087</v>
+      </c>
+      <c r="D23">
+        <v>0.89026894696320902</v>
+      </c>
+      <c r="E23">
+        <v>0.88969828986113764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>93.48082595870207</v>
+      </c>
+      <c r="C24">
+        <v>0.29665973047570632</v>
+      </c>
+      <c r="D24">
+        <v>0.93480825958702063</v>
+      </c>
+      <c r="E24">
+        <v>0.9322943713575278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>88.997742195001678</v>
+      </c>
+      <c r="C25">
+        <v>0.46327474207961739</v>
+      </c>
+      <c r="D25">
+        <v>0.88997742195001683</v>
+      </c>
+      <c r="E25">
+        <v>0.88855289745304178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>91.386430678466084</v>
+      </c>
+      <c r="C26">
+        <v>0.37138323035615028</v>
+      </c>
+      <c r="D26">
+        <v>0.9138643067846608</v>
+      </c>
+      <c r="E26">
+        <v>0.91037895201334196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>94.837931123971657</v>
+      </c>
+      <c r="C27">
+        <v>0.16537105101320629</v>
+      </c>
+      <c r="D27">
+        <v>0.94837931123971653</v>
+      </c>
+      <c r="E27">
+        <v>0.94763132667562644</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>96.460176991150448</v>
+      </c>
+      <c r="C28">
+        <v>0.12766584520350169</v>
+      </c>
+      <c r="D28">
+        <v>0.96460176991150437</v>
+      </c>
+      <c r="E28">
+        <v>0.96462160390971707</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>89.660204673050799</v>
+      </c>
+      <c r="C29">
+        <v>0.45288551257654042</v>
+      </c>
+      <c r="D29">
+        <v>0.89660204673050803</v>
+      </c>
+      <c r="E29">
+        <v>0.89422450448607615</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>91.268609590048356</v>
+      </c>
+      <c r="C30">
+        <v>0.37573011711817039</v>
+      </c>
+      <c r="D30">
+        <v>0.91268609590048355</v>
+      </c>
+      <c r="E30">
+        <v>0.91327284880464799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>93.21533923303835</v>
+      </c>
+      <c r="C31">
+        <v>0.27455023436098902</v>
+      </c>
+      <c r="D31">
+        <v>0.93215339233038352</v>
+      </c>
+      <c r="E31">
+        <v>0.92900105396827226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>88.230434519329748</v>
+      </c>
+      <c r="C32">
+        <v>0.51173490970492508</v>
+      </c>
+      <c r="D32">
+        <v>0.88230434519329748</v>
+      </c>
+      <c r="E32">
+        <v>0.87671227465487878</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>88.37948425159388</v>
+      </c>
+      <c r="C33">
+        <v>0.39474446372769312</v>
+      </c>
+      <c r="D33">
+        <v>0.88379484251593876</v>
+      </c>
+      <c r="E33">
+        <v>0.88380877880219033</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>88.141938944108503</v>
+      </c>
+      <c r="C34">
+        <v>0.40806311863707379</v>
+      </c>
+      <c r="D34">
+        <v>0.88141938944108522</v>
+      </c>
+      <c r="E34">
+        <v>0.87809103284110557</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>93.481171982456601</v>
+      </c>
+      <c r="C35">
+        <v>0.22750442568018719</v>
+      </c>
+      <c r="D35">
+        <v>0.93481171982456601</v>
+      </c>
+      <c r="E35">
+        <v>0.93427576117679434</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>92.213081428040027</v>
+      </c>
+      <c r="C36">
+        <v>0.36729483703738119</v>
+      </c>
+      <c r="D36">
+        <v>0.92213081428040033</v>
+      </c>
+      <c r="E36">
+        <v>0.91859584793541171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>95.398749124127363</v>
+      </c>
+      <c r="C37">
+        <v>0.24751896509490809</v>
+      </c>
+      <c r="D37">
+        <v>0.95398749124127369</v>
+      </c>
+      <c r="E37">
+        <v>0.95318752446034127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>88.790906495730923</v>
+      </c>
+      <c r="C38">
+        <v>0.57399224852464015</v>
+      </c>
+      <c r="D38">
+        <v>0.88790906495730937</v>
+      </c>
+      <c r="E38">
+        <v>0.88275989246516851</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>85.782921997595139</v>
+      </c>
+      <c r="C39">
+        <v>0.47581454093015052</v>
+      </c>
+      <c r="D39">
+        <v>0.8578292199759513</v>
+      </c>
+      <c r="E39">
+        <v>0.85778269436800803</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>92.124585852818797</v>
+      </c>
+      <c r="C40">
+        <v>0.42218741380493158</v>
+      </c>
+      <c r="D40">
+        <v>0.92124585852818797</v>
+      </c>
+      <c r="E40">
+        <v>0.91474758629028619</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>85.428247649201126</v>
+      </c>
+      <c r="C41">
+        <v>0.65954213691972352</v>
+      </c>
+      <c r="D41">
+        <v>0.85428247649201128</v>
+      </c>
+      <c r="E41">
+        <v>0.85475407958269778</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>89.794894419501901</v>
+      </c>
+      <c r="C42">
+        <v>0.33838248201815679</v>
+      </c>
+      <c r="D42">
+        <v>0.89794894419501892</v>
+      </c>
+      <c r="E42">
+        <v>0.89745353011817675</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>93.067846607669622</v>
+      </c>
+      <c r="C43">
+        <v>0.34344805996079231</v>
+      </c>
+      <c r="D43">
+        <v>0.93067846607669613</v>
+      </c>
+      <c r="E43">
+        <v>0.92705289618442388</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>87.555255668301626</v>
+      </c>
+      <c r="C44">
+        <v>0.45398392869489418</v>
+      </c>
+      <c r="D44">
+        <v>0.87555255668301635</v>
+      </c>
+      <c r="E44">
+        <v>0.87330329111747296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>82.420436162942593</v>
+      </c>
+      <c r="C45">
+        <v>0.97502949674380945</v>
+      </c>
+      <c r="D45">
+        <v>0.8242043616294259</v>
+      </c>
+      <c r="E45">
+        <v>0.82045714806996006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>76.785871850102509</v>
+      </c>
+      <c r="C46">
+        <v>0.92666380476051324</v>
+      </c>
+      <c r="D46">
+        <v>0.76785871850102505</v>
+      </c>
+      <c r="E46">
+        <v>0.75265044812719417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>95.752212389380531</v>
+      </c>
+      <c r="C47">
+        <v>0.17582487691413459</v>
+      </c>
+      <c r="D47">
+        <v>0.9575221238938052</v>
+      </c>
+      <c r="E47">
+        <v>0.95676487052924575</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>96.608015640273706</v>
+      </c>
+      <c r="C48">
+        <v>0.1146661170331356</v>
+      </c>
+      <c r="D48">
+        <v>0.96608015640273703</v>
+      </c>
+      <c r="E48">
+        <v>0.96660425767046654</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>96.106194690265482</v>
+      </c>
+      <c r="C49">
+        <v>0.2280509633466129</v>
+      </c>
+      <c r="D49">
+        <v>0.9610619469026549</v>
+      </c>
+      <c r="E49">
+        <v>0.95959930703429719</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B50">
+        <f>AVERAGE(B2:B49)</f>
+        <v>88.807555284503621</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Results/cnn_validation_CM_PCC.xlsx
+++ b/Results/cnn_validation_CM_PCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\fc_channelselection\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E399A5-48D6-4B0B-9330-C78BF861A6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145E7D89-5F1A-4A4D-9252-FCD290F502DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="K-Fold Results" sheetId="1" r:id="rId1"/>
